--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(I)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(I).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(I)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(I).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ibe
-Iberis (toutes les espèces) parmi elles :
+          <t>Ibe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iberis (toutes les espèces) parmi elles :
 Iberis sempervirens - Ibéris toujours vert
 Iberis umbellata
 </t>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ile
-Ilex - fam. Aquifoliacées (herbe)
+          <t>Ile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex - fam. Aquifoliacées (herbe)
 Ilex alaska
 Ilex aquifolium - Houx
 Ilex atlaclarensis
@@ -567,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,8 +609,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imp
-Impatiens - fam. Balsaminacées
+          <t>Imp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Impatiens - fam. Balsaminacées
 Impatiens balfourii - Balsamine de Balfour ou Balsamine des jardins
 Impatiens balsamina - Balsamine
 Impatiens glandulifera - Balsamine de l'Himalaya
@@ -605,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,17 +652,90 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inc
-Incarvillea - fam. Bignoniacées
-Incarvillea delavayi - Incarvillea de Delavay
-Ind
-Indigofera
+          <t>Inc</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Incarvillea - fam. Bignoniacées
+Incarvillea delavayi - Incarvillea de Delavay</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ind</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Indigofera
 Indocalamus - fam. Poacées (Bambousoidées)
 Indocalamus latifolius - Bambou
 Indocalamus solidus - Bambou
-Indocalamus tessellatus - Bambou
-Inu
-Inula - Astéracées
+Indocalamus tessellatus - Bambou</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inula - Astéracées
 Inula britannica - Inule d'Angleterre
 Inula conyza - Herbe aux mouches
 Inula glandulosa
@@ -645,34 +745,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ip</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipo
-Ipomoea - fam. Convolvulacées
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ipo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea - fam. Convolvulacées
 Ipomoea acuminata - Ipomée
 Ipomoea batatas - Patate douce
 Ipomoea brasiliensis ou Ipomoea pes-capres- Ipomée
@@ -683,37 +788,76 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ir</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ire
-Iresine
-Iresine herbstii - Irésine
-Iri
-Iris - Iridacées ou Liliacées
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Iresine
+Iresine herbstii - Irésine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ir</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Iri</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iris - Iridacées ou Liliacées
 Iris danfordiae
 Iris germanica - Iris des jardins
 Iris hollandica - Iris de Hollande
@@ -730,40 +874,113 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Is</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isa
-Isatis
-Isatis glauca - Isatis glauque
-Ism
-Ismene - Amaryllidacées
-Ismene festalis - Ispmene
-Iso
-Isoetes
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Isa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Isatis
+Isatis glauca - Isatis glauque</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ism</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ismene - Amaryllidacées
+Ismene festalis - Ispmene</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Iso</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isoetes
 Isoetes boryana - Isoète de Bory
 Isoetes echinospora - Isoète à spores épineuses
 Isoetes hieroglyphica
@@ -776,34 +993,39 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(I)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Ix</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ixi
-Ixia - Iridacées
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ixi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ixia - Iridacées
 Voir aussi Plantes par nom scientifique
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
